--- a/subjob/b_vecter.xlsx
+++ b/subjob/b_vecter.xlsx
@@ -1,21 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10514"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\倒易向量计算用\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangyue/vscode_git/subjob/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4962EA-50C5-8B49-9E9E-977FD0D87F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24225" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="24220" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="逆矩阵计算" sheetId="1" r:id="rId1"/>
     <sheet name="矩阵变换计算" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -71,8 +85,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>模</t>
@@ -81,8 +95,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>长</t>
@@ -93,8 +107,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>对</t>
@@ -103,8 +117,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>角大小(cos)</t>
@@ -121,8 +135,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>（填入前</t>
@@ -131,8 +145,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>请务</t>
@@ -141,8 +155,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>必确</t>
@@ -151,8 +165,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>认</t>
@@ -161,8 +175,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>基本原</t>
@@ -171,8 +185,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>则</t>
@@ -192,8 +206,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>将点限制在第一布里渊区的判断</t>
@@ -202,8 +216,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>语</t>
@@ -212,8 +226,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>句：</t>
@@ -224,7 +238,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
@@ -234,7 +248,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
@@ -246,7 +260,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
@@ -256,8 +270,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <charset val="134"/>
+        <rFont val="等线"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>阵</t>
@@ -286,7 +300,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
@@ -296,7 +310,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
@@ -307,19 +321,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -327,20 +341,20 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="游ゴシック"/>
-      <charset val="134"/>
+      <name val="等线"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -462,38 +476,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -525,7 +526,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -563,7 +570,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -601,7 +614,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -884,20 +903,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="8" max="11" width="12.625"/>
-    <col min="13" max="13" width="13.75"/>
+    <col min="8" max="11" width="12.6640625"/>
+    <col min="13" max="13" width="13.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -905,7 +924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -931,69 +950,69 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A3" s="19">
-        <v>14.664</v>
-      </c>
-      <c r="B3" s="19">
-        <v>5.74</v>
-      </c>
-      <c r="C3" s="19">
-        <v>3.9249999999999998</v>
-      </c>
-      <c r="D3" s="19">
-        <v>90</v>
-      </c>
-      <c r="E3" s="19">
-        <v>111.77</v>
-      </c>
-      <c r="F3" s="19">
-        <v>90</v>
+    <row r="3" spans="1:13">
+      <c r="A3">
+        <v>3.8820000000000001</v>
+      </c>
+      <c r="B3">
+        <v>5.8730000000000002</v>
+      </c>
+      <c r="C3">
+        <v>7.3019999999999996</v>
+      </c>
+      <c r="D3">
+        <v>92.43</v>
+      </c>
+      <c r="E3">
+        <v>112.55</v>
+      </c>
+      <c r="F3">
+        <v>91.13</v>
       </c>
       <c r="H3">
         <f>I5*(J6*K7)</f>
-        <v>306.81046370133083</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+        <v>153.49505489413966</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4">
         <f>SIN(PI()*D3/180)</f>
-        <v>1</v>
+        <v>0.99910076710124496</v>
       </c>
       <c r="E4">
         <f>SIN(PI()*E3/180)</f>
-        <v>0.92868014734119164</v>
+        <v>0.92354522647206649</v>
       </c>
       <c r="F4">
         <f>SIN(PI()*F3/180)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+        <v>0.99980552331219441</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5">
         <f>COS(PI()*D3/180)</f>
-        <v>6.1257422745431001E-17</v>
+        <v>-4.2398787455584071E-2</v>
       </c>
       <c r="E5">
         <f t="shared" ref="E5:F5" si="0">COS(PI()*E3/180)</f>
-        <v>-0.37088163062403412</v>
+        <v>-0.38348952353442384</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>6.1257422745431001E-17</v>
+        <v>-1.9720942026916499E-2</v>
       </c>
       <c r="H5" t="s">
         <v>12</v>
       </c>
       <c r="I5">
         <f>A3</f>
-        <v>14.664</v>
+        <v>3.8820000000000001</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1002,23 +1021,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13">
       <c r="H6" t="s">
         <v>13</v>
       </c>
       <c r="I6">
         <f>B3*F5</f>
-        <v>3.5161760655877393E-16</v>
+        <v>-0.1158210925240806</v>
       </c>
       <c r="J6">
         <f>B3*F4</f>
-        <v>5.74</v>
+        <v>5.8718578384125184</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>7.3019999999999996</v>
       </c>
@@ -1042,51 +1061,51 @@
       </c>
       <c r="I7">
         <f>C3*E5</f>
-        <v>-1.455710400199334</v>
+        <v>-2.8002405008483628</v>
       </c>
       <c r="J7">
         <f>C3/F4*(D5-E5*F5)</f>
-        <v>3.2960845165574777E-16</v>
+        <v>-0.36489028923419176</v>
       </c>
       <c r="K7">
         <f>C3/F4*SQRT(F4*F4-D5*D5-E5*E5+2*D5*E5*F5)</f>
-        <v>3.6450695783141773</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+        <v>6.7338482470450058</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="L8" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="22" t="s">
+      <c r="M8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13">
       <c r="H9" t="s">
         <v>17</v>
       </c>
       <c r="I9">
         <f>2*PI()/H3*(J6*K7-J7*K6)</f>
-        <v>0.4284769031082642</v>
+        <v>1.6185433557907225</v>
       </c>
       <c r="J9">
         <f>2*PI()/H3*(K6*I7-K7*I6)</f>
-        <v>-2.6247390790356015E-17</v>
+        <v>3.1925408435289057E-2</v>
       </c>
       <c r="K9">
         <f>2*PI()/H3*(I6*J7-I7*J6)</f>
-        <v>0.17111834786659344</v>
+        <v>0.67479393091106377</v>
       </c>
       <c r="L9">
         <f>SQRT(I9*I9+J9*J9+K9*K9)</f>
-        <v>0.4613826453973332</v>
+        <v>1.7538667781426442</v>
       </c>
       <c r="M9">
         <f>(I10*I11+J10*J11+K10*K11)/(L10*L11)</f>
-        <v>-9.0425832641633611E-17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+        <v>5.4108103137641778E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="H10" t="s">
         <v>18</v>
       </c>
@@ -1096,22 +1115,22 @@
       </c>
       <c r="J10">
         <f>2*PI()/H3*(-K5*I7+K7*I5)</f>
-        <v>1.0946315866166525</v>
+        <v>1.0700506517845587</v>
       </c>
       <c r="K10">
         <f>2*PI()/H3*(-I5*J7+I7*J5)</f>
-        <v>-9.8982972655643282E-17</v>
+        <v>5.7983351792378672E-2</v>
       </c>
       <c r="L10">
         <f t="shared" ref="L10:L11" si="1">SQRT(I10*I10+J10*J10+K10*K10)</f>
-        <v>1.0946315866166525</v>
+        <v>1.0716204862121839</v>
       </c>
       <c r="M10">
         <f>(I9*I11+J9*J11+K9*K11)/(L9*L11)</f>
-        <v>0.37088163062403412</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+        <v>0.38474640110674468</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1128,28 +1147,28 @@
       </c>
       <c r="K11">
         <f>2*PI()/H3*(I5*J6-I6*J5)</f>
-        <v>1.7237490731481513</v>
+        <v>0.93307497832859798</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
-        <v>1.7237490731481513</v>
+        <v>0.93307497832859798</v>
       </c>
       <c r="M11">
         <f>(I9*I10+J9*J10+K9*K10)/(L9*L10)</f>
-        <v>-9.0425832641633599E-17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A12" s="20" t="s">
+        <v>3.8994101971432889E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A13" s="20" t="s">
+    <row r="13" spans="1:13">
+      <c r="A13" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13">
       <c r="L15">
         <v>0.93307497832859798</v>
       </c>
@@ -1158,7 +1177,7 @@
         <v>0.46653748916429899</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1169,7 +1188,7 @@
         <v>0.53581024310609005</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:13">
       <c r="L17">
         <v>1.75386677814264</v>
       </c>
@@ -1177,19 +1196,19 @@
         <v>0.87693338907132001</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
+    <row r="26" spans="1:13">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
   <hyperlinks>
-    <hyperlink ref="A12" r:id="rId1"/>
-    <hyperlink ref="A13" r:id="rId2"/>
+    <hyperlink ref="A12" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A13" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1198,19 +1217,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="9" max="14" width="9.375" customWidth="1"/>
+    <col min="9" max="14" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1218,7 +1237,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:21">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1256,197 +1275,197 @@
         <v>3.6187957815670001E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:21">
       <c r="A3" s="5">
         <v>0</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3">
         <v>-1</v>
       </c>
-      <c r="C3" s="6">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0</v>
-      </c>
-      <c r="F3" s="8">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
         <v>0</v>
       </c>
       <c r="I3" s="5">
         <v>-2.622739411524E-3</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3">
         <v>1.11338066010004E-5</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3">
         <v>1.839006438092E-3</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3">
         <v>-2.2842104774399999E-3</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3">
         <v>1.8935589928840001E-3</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="6">
         <v>-2.1099618812180001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:21">
       <c r="A4" s="5">
         <v>0</v>
       </c>
-      <c r="B4" s="6">
-        <v>0</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="6">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0</v>
-      </c>
-      <c r="F4" s="8">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
         <v>0</v>
       </c>
       <c r="I4" s="5">
         <v>-5.0967690897900002E-3</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4">
         <v>1.3407297120289999E-3</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4">
         <v>2.354683232494E-3</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4">
         <v>-1.40400437627999E-4</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4">
         <v>5.6763097218690004E-3</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="6">
         <v>-2.2435665408789998E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:21">
       <c r="A5" s="5">
         <v>0</v>
       </c>
-      <c r="B5" s="7">
-        <v>0</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>-1</v>
       </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
         <v>0</v>
       </c>
       <c r="I5" s="5">
         <v>3.8813251846680002E-3</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5">
         <v>-2.2144067165790001E-3</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5">
         <v>-1.9846841536949999E-3</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5">
         <v>-1.4619158669999799E-5</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5">
         <v>-3.8826315801569998E-3</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="6">
         <v>4.9496011080800003E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:21">
       <c r="A6" s="5">
         <v>0</v>
       </c>
-      <c r="B6" s="7">
-        <v>0</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="6">
         <v>0</v>
       </c>
       <c r="I6" s="5">
         <v>5.1978504152399999E-3</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6">
         <v>-1.5887301174000001E-3</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6">
         <v>-3.7585691619339999E-3</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6">
         <v>1.09897919892E-3</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6">
         <v>-8.3857774131779993E-3</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="6">
         <v>6.4253802065999998E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A7" s="9">
-        <v>0</v>
-      </c>
-      <c r="B7" s="10">
-        <v>0</v>
-      </c>
-      <c r="C7" s="10">
-        <v>0</v>
-      </c>
-      <c r="D7" s="10">
-        <v>0</v>
-      </c>
-      <c r="E7" s="10">
-        <v>0</v>
-      </c>
-      <c r="F7" s="11">
+    <row r="7" spans="1:21">
+      <c r="A7" s="7">
+        <v>0</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9">
         <v>-1</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="7">
         <v>3.07813919694E-3</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="8">
         <v>-1.5578361059609999E-3</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="8">
         <v>-6.5425544248299996E-4</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="8">
         <v>-1.0490999319299999E-3</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="8">
         <v>-1.3646904632969999E-3</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="9">
         <v>1.9496486305039999E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:21">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -1457,8 +1476,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A10" s="12">
+    <row r="10" spans="1:21">
+      <c r="A10" s="2">
         <v>-1</v>
       </c>
       <c r="B10" s="3">
@@ -1515,287 +1534,287 @@
         <v>3.07813919694E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:21">
       <c r="A11" s="5">
         <v>0</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" s="7">
-        <v>0</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0</v>
-      </c>
-      <c r="E11" s="7">
-        <v>0</v>
-      </c>
-      <c r="F11" s="8">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
         <v>0</v>
       </c>
       <c r="I11" s="5">
         <v>2.622739411524E-3</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11">
         <v>1.11338066010004E-5</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11">
         <v>-1.839006438092E-3</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11">
         <v>2.2842104774399999E-3</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11">
         <v>1.8935589928840001E-3</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="6">
         <v>2.1099618812180001E-3</v>
       </c>
       <c r="P11" s="5">
         <v>1.862251619994E-3</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="Q11">
         <v>1.11338066010004E-5</v>
       </c>
-      <c r="R11" s="6">
+      <c r="R11">
         <v>-1.3407297120289999E-3</v>
       </c>
-      <c r="S11" s="6">
+      <c r="S11">
         <v>2.2144067165790001E-3</v>
       </c>
-      <c r="T11" s="6">
+      <c r="T11">
         <v>-1.5887301174000001E-3</v>
       </c>
-      <c r="U11" s="8">
+      <c r="U11" s="6">
         <v>1.5578361059609999E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:21">
       <c r="A12" s="5">
         <v>0</v>
       </c>
-      <c r="B12" s="7">
-        <v>0</v>
-      </c>
-      <c r="C12" s="6">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
         <v>-1</v>
       </c>
-      <c r="D12" s="7">
-        <v>0</v>
-      </c>
-      <c r="E12" s="7">
-        <v>0</v>
-      </c>
-      <c r="F12" s="8">
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
         <v>0</v>
       </c>
       <c r="I12" s="5">
         <v>-5.0967690897900002E-3</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12">
         <v>-1.3407297120289999E-3</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12">
         <v>2.354683232494E-3</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12">
         <v>-1.40400437627999E-4</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12">
         <v>-5.6763097218690004E-3</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="6">
         <v>-2.2435665408789998E-3</v>
       </c>
       <c r="P12" s="5">
         <v>-3.3031001499240001E-3</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="Q12">
         <v>-1.839006438092E-3</v>
       </c>
-      <c r="R12" s="6">
+      <c r="R12">
         <v>2.354683232494E-3</v>
       </c>
-      <c r="S12" s="6">
+      <c r="S12">
         <v>-1.9846841536949999E-3</v>
       </c>
-      <c r="T12" s="6">
+      <c r="T12">
         <v>3.7585691619339999E-3</v>
       </c>
-      <c r="U12" s="8">
+      <c r="U12" s="6">
         <v>-6.5425544248299996E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:21">
       <c r="A13" s="5">
         <v>0</v>
       </c>
-      <c r="B13" s="6">
-        <v>0</v>
-      </c>
-      <c r="C13" s="7">
-        <v>0</v>
-      </c>
-      <c r="D13" s="6">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
         <v>-1</v>
       </c>
-      <c r="E13" s="7">
-        <v>0</v>
-      </c>
-      <c r="F13" s="8">
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
         <v>0</v>
       </c>
       <c r="I13" s="5">
         <v>3.8813251846680002E-3</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13">
         <v>2.2144067165790001E-3</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13">
         <v>-1.9846841536949999E-3</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13">
         <v>-1.4619158669999799E-5</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13">
         <v>3.8826315801569998E-3</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N13" s="6">
         <v>4.9496011080800003E-3</v>
       </c>
       <c r="P13" s="5">
         <v>2.264413005588E-3</v>
       </c>
-      <c r="Q13" s="6">
+      <c r="Q13">
         <v>2.2842104774399999E-3</v>
       </c>
-      <c r="R13" s="6">
+      <c r="R13">
         <v>-1.40400437627999E-4</v>
       </c>
-      <c r="S13" s="6">
+      <c r="S13">
         <v>-1.4619158669999799E-5</v>
       </c>
-      <c r="T13" s="6">
+      <c r="T13">
         <v>-1.09897919892E-3</v>
       </c>
-      <c r="U13" s="8">
+      <c r="U13" s="6">
         <v>-1.0490999319299999E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:21">
       <c r="A14" s="5">
         <v>0</v>
       </c>
-      <c r="B14" s="7">
-        <v>0</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
-      <c r="E14" s="6">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="6">
         <v>0</v>
       </c>
       <c r="I14" s="5">
         <v>-5.1978504152399999E-3</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14">
         <v>-1.5887301174000001E-3</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14">
         <v>3.7585691619339999E-3</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14">
         <v>-1.09897919892E-3</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14">
         <v>-8.3857774131779993E-3</v>
       </c>
-      <c r="N14" s="8">
+      <c r="N14" s="6">
         <v>-6.4253802065999998E-4</v>
       </c>
       <c r="P14" s="5">
         <v>3.2749922547930001E-3</v>
       </c>
-      <c r="Q14" s="6">
+      <c r="Q14">
         <v>1.8935589928840001E-3</v>
       </c>
-      <c r="R14" s="6">
+      <c r="R14">
         <v>-5.6763097218690004E-3</v>
       </c>
-      <c r="S14" s="6">
+      <c r="S14">
         <v>3.8826315801569998E-3</v>
       </c>
-      <c r="T14" s="6">
+      <c r="T14">
         <v>-8.3857774131779993E-3</v>
       </c>
-      <c r="U14" s="8">
+      <c r="U14" s="6">
         <v>1.3646904632969999E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A15" s="9">
-        <v>0</v>
-      </c>
-      <c r="B15" s="10">
-        <v>0</v>
-      </c>
-      <c r="C15" s="10">
-        <v>0</v>
-      </c>
-      <c r="D15" s="10">
-        <v>0</v>
-      </c>
-      <c r="E15" s="10">
-        <v>0</v>
-      </c>
-      <c r="F15" s="11">
+    <row r="15" spans="1:21">
+      <c r="A15" s="7">
+        <v>0</v>
+      </c>
+      <c r="B15" s="8">
+        <v>0</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0</v>
+      </c>
+      <c r="F15" s="9">
         <v>-1</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="7">
         <v>3.07813919694E-3</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="8">
         <v>1.5578361059609999E-3</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="8">
         <v>-6.5425544248299996E-4</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L15" s="8">
         <v>-1.0490999319299999E-3</v>
       </c>
-      <c r="M15" s="10">
+      <c r="M15" s="8">
         <v>1.3646904632969999E-3</v>
       </c>
-      <c r="N15" s="11">
+      <c r="N15" s="9">
         <v>1.9496486305039999E-3</v>
       </c>
-      <c r="P15" s="9">
+      <c r="P15" s="7">
         <v>3.6187957815670001E-3</v>
       </c>
-      <c r="Q15" s="10">
+      <c r="Q15" s="8">
         <v>2.1099618812180001E-3</v>
       </c>
-      <c r="R15" s="10">
+      <c r="R15" s="8">
         <v>-2.2435665408789998E-3</v>
       </c>
-      <c r="S15" s="10">
+      <c r="S15" s="8">
         <v>4.9496011080800003E-3</v>
       </c>
-      <c r="T15" s="10">
+      <c r="T15" s="8">
         <v>-6.4253802065999998E-4</v>
       </c>
-      <c r="U15" s="11">
+      <c r="U15" s="9">
         <v>1.9496486305039999E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:21">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -1806,23 +1825,23 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A18" s="12">
+    <row r="18" spans="1:21">
+      <c r="A18" s="2">
         <v>-1</v>
       </c>
-      <c r="B18" s="13">
-        <v>0</v>
-      </c>
-      <c r="C18" s="13">
-        <v>0</v>
-      </c>
-      <c r="D18" s="13">
-        <v>0</v>
-      </c>
-      <c r="E18" s="13">
-        <v>0</v>
-      </c>
-      <c r="F18" s="14">
+      <c r="B18" s="3">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
         <v>0</v>
       </c>
       <c r="I18" s="2">
@@ -1864,287 +1883,287 @@
         <v>-3.07813919694E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A19" s="15">
-        <v>0</v>
-      </c>
-      <c r="B19" s="6">
+    <row r="19" spans="1:21">
+      <c r="A19" s="5">
+        <v>0</v>
+      </c>
+      <c r="B19">
         <v>-1</v>
       </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7">
-        <v>0</v>
-      </c>
-      <c r="F19" s="16">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6">
         <v>0</v>
       </c>
       <c r="I19" s="5">
         <v>2.622739411524E-3</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19">
         <v>1.11338066010004E-5</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19">
         <v>-1.839006438092E-3</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19">
         <v>-2.2842104774399999E-3</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19">
         <v>-1.8935589928840001E-3</v>
       </c>
-      <c r="N19" s="8">
+      <c r="N19" s="6">
         <v>-2.1099618812180001E-3</v>
       </c>
       <c r="P19" s="5">
         <v>1.862251619994E-3</v>
       </c>
-      <c r="Q19" s="6">
+      <c r="Q19">
         <v>1.11338066010004E-5</v>
       </c>
-      <c r="R19" s="6">
+      <c r="R19">
         <v>-1.3407297120289999E-3</v>
       </c>
-      <c r="S19" s="6">
+      <c r="S19">
         <v>-2.2144067165790001E-3</v>
       </c>
-      <c r="T19" s="6">
+      <c r="T19">
         <v>1.5887301174000001E-3</v>
       </c>
-      <c r="U19" s="8">
+      <c r="U19" s="6">
         <v>-1.5578361059609999E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A20" s="15">
-        <v>0</v>
-      </c>
-      <c r="B20" s="6">
-        <v>0</v>
-      </c>
-      <c r="C20" s="6">
+    <row r="20" spans="1:21">
+      <c r="A20" s="5">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
         <v>-1</v>
       </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7">
-        <v>0</v>
-      </c>
-      <c r="F20" s="16">
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6">
         <v>0</v>
       </c>
       <c r="I20" s="5">
         <v>-5.0967690897900002E-3</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20">
         <v>-1.3407297120289999E-3</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20">
         <v>2.354683232494E-3</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20">
         <v>1.40400437627999E-4</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20">
         <v>5.6763097218690004E-3</v>
       </c>
-      <c r="N20" s="8">
+      <c r="N20" s="6">
         <v>2.2435665408789998E-3</v>
       </c>
       <c r="P20" s="5">
         <v>-3.3031001499240001E-3</v>
       </c>
-      <c r="Q20" s="6">
+      <c r="Q20">
         <v>-1.839006438092E-3</v>
       </c>
-      <c r="R20" s="6">
+      <c r="R20">
         <v>2.354683232494E-3</v>
       </c>
-      <c r="S20" s="6">
+      <c r="S20">
         <v>1.9846841536949999E-3</v>
       </c>
-      <c r="T20" s="6">
+      <c r="T20">
         <v>-3.7585691619339999E-3</v>
       </c>
-      <c r="U20" s="8">
+      <c r="U20" s="6">
         <v>6.5425544248299996E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A21" s="15">
-        <v>0</v>
-      </c>
-      <c r="B21" s="6">
-        <v>0</v>
-      </c>
-      <c r="C21" s="6">
-        <v>0</v>
-      </c>
-      <c r="D21" s="6">
+    <row r="21" spans="1:21">
+      <c r="A21" s="5">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
         <v>1</v>
       </c>
-      <c r="E21" s="7">
-        <v>0</v>
-      </c>
-      <c r="F21" s="16">
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" s="6">
         <v>0</v>
       </c>
       <c r="I21" s="5">
         <v>-3.8813251846680002E-3</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21">
         <v>-2.2144067165790001E-3</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21">
         <v>1.9846841536949999E-3</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21">
         <v>-1.4619158669999799E-5</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21">
         <v>3.8826315801569998E-3</v>
       </c>
-      <c r="N21" s="8">
+      <c r="N21" s="6">
         <v>4.9496011080800003E-3</v>
       </c>
       <c r="P21" s="5">
         <v>-2.264413005588E-3</v>
       </c>
-      <c r="Q21" s="6">
+      <c r="Q21">
         <v>-2.2842104774399999E-3</v>
       </c>
-      <c r="R21" s="6">
+      <c r="R21">
         <v>1.40400437627999E-4</v>
       </c>
-      <c r="S21" s="6">
+      <c r="S21">
         <v>-1.4619158669999799E-5</v>
       </c>
-      <c r="T21" s="6">
+      <c r="T21">
         <v>-1.09897919892E-3</v>
       </c>
-      <c r="U21" s="8">
+      <c r="U21" s="6">
         <v>-1.0490999319299999E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A22" s="15">
-        <v>0</v>
-      </c>
-      <c r="B22" s="6">
-        <v>0</v>
-      </c>
-      <c r="C22" s="6">
-        <v>0</v>
-      </c>
-      <c r="D22" s="6">
-        <v>0</v>
-      </c>
-      <c r="E22" s="6">
+    <row r="22" spans="1:21">
+      <c r="A22" s="5">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
         <v>1</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="6">
         <v>0</v>
       </c>
       <c r="I22" s="5">
         <v>5.1978504152399999E-3</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22">
         <v>1.5887301174000001E-3</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22">
         <v>-3.7585691619339999E-3</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L22">
         <v>-1.09897919892E-3</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22">
         <v>-8.3857774131779993E-3</v>
       </c>
-      <c r="N22" s="8">
+      <c r="N22" s="6">
         <v>-6.4253802065999998E-4</v>
       </c>
       <c r="P22" s="5">
         <v>-3.2749922547930001E-3</v>
       </c>
-      <c r="Q22" s="6">
+      <c r="Q22">
         <v>-1.8935589928840001E-3</v>
       </c>
-      <c r="R22" s="6">
+      <c r="R22">
         <v>5.6763097218690004E-3</v>
       </c>
-      <c r="S22" s="6">
+      <c r="S22">
         <v>3.8826315801569998E-3</v>
       </c>
-      <c r="T22" s="6">
+      <c r="T22">
         <v>-8.3857774131779993E-3</v>
       </c>
-      <c r="U22" s="8">
+      <c r="U22" s="6">
         <v>1.3646904632969999E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A23" s="17">
-        <v>0</v>
-      </c>
-      <c r="B23" s="10">
-        <v>0</v>
-      </c>
-      <c r="C23" s="10">
-        <v>0</v>
-      </c>
-      <c r="D23" s="18">
-        <v>0</v>
-      </c>
-      <c r="E23" s="18">
-        <v>0</v>
-      </c>
-      <c r="F23" s="11">
+    <row r="23" spans="1:21">
+      <c r="A23" s="7">
+        <v>0</v>
+      </c>
+      <c r="B23" s="8">
+        <v>0</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0</v>
+      </c>
+      <c r="F23" s="9">
         <v>1</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="7">
         <v>-3.07813919694E-3</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J23" s="8">
         <v>-1.5578361059609999E-3</v>
       </c>
-      <c r="K23" s="10">
+      <c r="K23" s="8">
         <v>6.5425544248299996E-4</v>
       </c>
-      <c r="L23" s="10">
+      <c r="L23" s="8">
         <v>-1.0490999319299999E-3</v>
       </c>
-      <c r="M23" s="10">
+      <c r="M23" s="8">
         <v>1.3646904632969999E-3</v>
       </c>
-      <c r="N23" s="11">
+      <c r="N23" s="9">
         <v>1.9496486305039999E-3</v>
       </c>
-      <c r="P23" s="9">
+      <c r="P23" s="7">
         <v>-3.6187957815670001E-3</v>
       </c>
-      <c r="Q23" s="10">
+      <c r="Q23" s="8">
         <v>-2.1099618812180001E-3</v>
       </c>
-      <c r="R23" s="10">
+      <c r="R23" s="8">
         <v>2.2435665408789998E-3</v>
       </c>
-      <c r="S23" s="10">
+      <c r="S23" s="8">
         <v>4.9496011080800003E-3</v>
       </c>
-      <c r="T23" s="10">
+      <c r="T23" s="8">
         <v>-6.4253802065999998E-4</v>
       </c>
-      <c r="U23" s="11">
+      <c r="U23" s="9">
         <v>1.9496486305039999E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:21">
       <c r="I25" s="1" t="s">
         <v>29</v>
       </c>
@@ -2152,7 +2171,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:21">
       <c r="I26" s="2">
         <f t="array" ref="I26:N31">MMULT(MMULT(A18:F23,I2:N7),TRANSPOSE(A18:F23))</f>
         <v>5.2341286664340002E-3</v>
@@ -2192,193 +2211,193 @@
         <v>-3.6187957815670001E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:21">
       <c r="I27" s="5">
         <v>-2.622739411524E-3</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27">
         <v>1.11338066010004E-5</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K27">
         <v>1.839006438092E-3</v>
       </c>
-      <c r="L27" s="6">
+      <c r="L27">
         <v>2.2842104774399999E-3</v>
       </c>
-      <c r="M27" s="6">
+      <c r="M27">
         <v>-1.8935589928840001E-3</v>
       </c>
-      <c r="N27" s="8">
+      <c r="N27" s="6">
         <v>2.1099618812180001E-3</v>
       </c>
       <c r="P27" s="5">
         <v>-2.622739411524E-3</v>
       </c>
-      <c r="Q27" s="6">
+      <c r="Q27">
         <v>1.11338066010004E-5</v>
       </c>
-      <c r="R27" s="6">
+      <c r="R27">
         <v>1.839006438092E-3</v>
       </c>
-      <c r="S27" s="6">
+      <c r="S27">
         <v>2.2842104774399999E-3</v>
       </c>
-      <c r="T27" s="6">
+      <c r="T27">
         <v>-1.8935589928840001E-3</v>
       </c>
-      <c r="U27" s="8">
+      <c r="U27" s="6">
         <v>2.1099618812180001E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:21">
       <c r="I28" s="5">
         <v>-5.0967690897900002E-3</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J28">
         <v>1.3407297120289999E-3</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K28">
         <v>2.354683232494E-3</v>
       </c>
-      <c r="L28" s="6">
+      <c r="L28">
         <v>1.40400437627999E-4</v>
       </c>
-      <c r="M28" s="6">
+      <c r="M28">
         <v>-5.6763097218690004E-3</v>
       </c>
-      <c r="N28" s="8">
+      <c r="N28" s="6">
         <v>2.2435665408789998E-3</v>
       </c>
       <c r="P28" s="5">
         <v>-5.0967690897900002E-3</v>
       </c>
-      <c r="Q28" s="6">
+      <c r="Q28">
         <v>1.3407297120289999E-3</v>
       </c>
-      <c r="R28" s="6">
+      <c r="R28">
         <v>2.354683232494E-3</v>
       </c>
-      <c r="S28" s="6">
+      <c r="S28">
         <v>1.40400437627999E-4</v>
       </c>
-      <c r="T28" s="6">
+      <c r="T28">
         <v>-5.6763097218690004E-3</v>
       </c>
-      <c r="U28" s="8">
+      <c r="U28" s="6">
         <v>2.2435665408789998E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:21">
       <c r="I29" s="5">
         <v>-3.8813251846680002E-3</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J29">
         <v>2.2144067165790001E-3</v>
       </c>
-      <c r="K29" s="6">
+      <c r="K29">
         <v>1.9846841536949999E-3</v>
       </c>
-      <c r="L29" s="6">
+      <c r="L29">
         <v>-1.4619158669999799E-5</v>
       </c>
-      <c r="M29" s="6">
+      <c r="M29">
         <v>-3.8826315801569998E-3</v>
       </c>
-      <c r="N29" s="8">
+      <c r="N29" s="6">
         <v>4.9496011080800003E-3</v>
       </c>
       <c r="P29" s="5">
         <v>-3.8813251846680002E-3</v>
       </c>
-      <c r="Q29" s="6">
+      <c r="Q29">
         <v>2.2144067165790001E-3</v>
       </c>
-      <c r="R29" s="6">
+      <c r="R29">
         <v>1.9846841536949999E-3</v>
       </c>
-      <c r="S29" s="6">
+      <c r="S29">
         <v>-1.4619158669999799E-5</v>
       </c>
-      <c r="T29" s="6">
+      <c r="T29">
         <v>-3.8826315801569998E-3</v>
       </c>
-      <c r="U29" s="8">
+      <c r="U29" s="6">
         <v>4.9496011080800003E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:21">
       <c r="I30" s="5">
         <v>-5.1978504152399999E-3</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J30">
         <v>1.5887301174000001E-3</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K30">
         <v>3.7585691619339999E-3</v>
       </c>
-      <c r="L30" s="6">
+      <c r="L30">
         <v>1.09897919892E-3</v>
       </c>
-      <c r="M30" s="6">
+      <c r="M30">
         <v>-8.3857774131779993E-3</v>
       </c>
-      <c r="N30" s="8">
+      <c r="N30" s="6">
         <v>6.4253802065999998E-4</v>
       </c>
       <c r="P30" s="5">
         <v>-5.1978504152399999E-3</v>
       </c>
-      <c r="Q30" s="6">
+      <c r="Q30">
         <v>1.5887301174000001E-3</v>
       </c>
-      <c r="R30" s="6">
+      <c r="R30">
         <v>3.7585691619339999E-3</v>
       </c>
-      <c r="S30" s="6">
+      <c r="S30">
         <v>1.09897919892E-3</v>
       </c>
-      <c r="T30" s="6">
+      <c r="T30">
         <v>-8.3857774131779993E-3</v>
       </c>
-      <c r="U30" s="8">
+      <c r="U30" s="6">
         <v>6.4253802065999998E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="I31" s="9">
+    <row r="31" spans="1:21">
+      <c r="I31" s="7">
         <v>-3.07813919694E-3</v>
       </c>
-      <c r="J31" s="10">
+      <c r="J31" s="8">
         <v>1.5578361059609999E-3</v>
       </c>
-      <c r="K31" s="10">
+      <c r="K31" s="8">
         <v>6.5425544248299996E-4</v>
       </c>
-      <c r="L31" s="10">
+      <c r="L31" s="8">
         <v>-1.0490999319299999E-3</v>
       </c>
-      <c r="M31" s="10">
+      <c r="M31" s="8">
         <v>-1.3646904632969999E-3</v>
       </c>
-      <c r="N31" s="11">
+      <c r="N31" s="9">
         <v>1.9496486305039999E-3</v>
       </c>
-      <c r="P31" s="9">
+      <c r="P31" s="7">
         <v>-3.07813919694E-3</v>
       </c>
-      <c r="Q31" s="10">
+      <c r="Q31" s="8">
         <v>1.5578361059609999E-3</v>
       </c>
-      <c r="R31" s="10">
+      <c r="R31" s="8">
         <v>6.5425544248299996E-4</v>
       </c>
-      <c r="S31" s="10">
+      <c r="S31" s="8">
         <v>-1.0490999319299999E-3</v>
       </c>
-      <c r="T31" s="10">
+      <c r="T31" s="8">
         <v>-1.3646904632969999E-3</v>
       </c>
-      <c r="U31" s="11">
+      <c r="U31" s="9">
         <v>1.9496486305039999E-3</v>
       </c>
     </row>
